--- a/詳設進捗&成果物.xlsx
+++ b/詳設進捗&成果物.xlsx
@@ -3386,7 +3386,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15"/>
